--- a/medicine/Premiers secours et secourisme/Système_d'avertissement/Système_d'avertissement.xlsx
+++ b/medicine/Premiers secours et secourisme/Système_d'avertissement/Système_d'avertissement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27avertissement</t>
+          <t>Système_d'avertissement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un système d'avertissement est un système biologique ou technique employé par un individu ou un groupe pour informer d'un danger imminent. Son but est de permettre la préparation au danger et d'agir afin d'en réduire les conséquences ou l’éviter.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27avertissement</t>
+          <t>Système_d'avertissement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Systèmes d'avertissement biologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aposématisme
 Indicateur environnemental
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27avertissement</t>
+          <t>Système_d'avertissement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,47 @@
           <t>Systèmes d'avertissement de l’homme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alerte aux populations
-Systèmes d'avertissement civils
-Alarme incendie
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alerte aux populations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Système_d'avertissement</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_d%27avertissement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systèmes d'avertissement de l’homme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Systèmes d'avertissement civils</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alarme incendie
 Alerte cyclonique
 Alerte d'urgence de l'Alberta (en)
 Alerte de franchissement involontaire de ligne
@@ -575,9 +625,43 @@
 Système d'alerte du Nord
 Système européen d'échange d'informations en cas d'urgence radiologique (Union européenne)
 Traffic Collision Avoidance System
-Train Protection &amp; Warning System (Royaume-Uni et État de Victoria en Australie)
-Systèmes d'avertissement militaires
-Parmi les systèmes anciens se trouve le système de balises byzantines au IXe siècle en Asie mineure.
+Train Protection &amp; Warning System (Royaume-Uni et État de Victoria en Australie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Système_d'avertissement</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_d%27avertissement</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systèmes d'avertissement de l’homme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Systèmes d'avertissement militaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les systèmes anciens se trouve le système de balises byzantines au IXe siècle en Asie mineure.
 La défense antimissile inclut :
 le Defense Support Program des États-Unis, qui sera remplacé par le SBIRS
 le Space-Based Infrared System des États-Unis,
